--- a/CashFlow/SNOW_cashflow.xlsx
+++ b/CashFlow/SNOW_cashflow.xlsx
@@ -154,10 +154,10 @@
         </is>
       </c>
       <c r="B5" s="0" t="n">
-        <v>-2878000.0</v>
+        <v>25000000.0</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>4194000.0</v>
+        <v>27000000.0</v>
       </c>
       <c r="D5" s="0" t="inlineStr">
         <is>
